--- a/biology/Botanique/Parc_Micaud/Parc_Micaud.xlsx
+++ b/biology/Botanique/Parc_Micaud/Parc_Micaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le parc Micaud[1] ou promenade Micaud est un jardin public de Besançon situé au bord du Doubs. Il est baptisé du nom de Jean-Agathe Micaud, ancien maire de Besançon de 1835 à 1843, et initiateur du parc en 1843.
+Le parc Micaud ou promenade Micaud est un jardin public de Besançon situé au bord du Doubs. Il est baptisé du nom de Jean-Agathe Micaud, ancien maire de Besançon de 1835 à 1843, et initiateur du parc en 1843.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1830 le projet de ce parc de plus de 3 hectares est établi par la municipalité pour combler des terrains marécageux, un bras du Doubs et l'ancienne île des prés de champ qui faisait face à l'île aux moineaux, dans l'actuel quartier des Chaprais, entre la boucle du Doubs et l'actuel boulevard Édouard Droz.
 			Vue sur la citadelle depuis le parc.
@@ -520,7 +534,7 @@
 			Pelouses.
 			Parterre fleuri.
 			Banc avec vue sur le Doubs.
-En 1843, Jean-Agathe Micaud, maire de Besançon de 1835 à 1843, lance l'initiative de ce parc public arboré, verdoyant et fleuri sur les plans de l’architecte franc-comtois Alphonse Delacroix, avec environ 400 arbres parmi lesquels plusieurs spécimens remarquables de magnolia à grandes fleurs, hêtres à feuillage lacinié, tulipiers, paulownias, sophoras, etc[2]. Il comporte également un kiosque à musique du XIXe siècle, un bateau-restaurant, des bassins, une cascade d’agrément, un carrousel et un terrain de jeux pour enfants.
+En 1843, Jean-Agathe Micaud, maire de Besançon de 1835 à 1843, lance l'initiative de ce parc public arboré, verdoyant et fleuri sur les plans de l’architecte franc-comtois Alphonse Delacroix, avec environ 400 arbres parmi lesquels plusieurs spécimens remarquables de magnolia à grandes fleurs, hêtres à feuillage lacinié, tulipiers, paulownias, sophoras, etc. Il comporte également un kiosque à musique du XIXe siècle, un bateau-restaurant, des bassins, une cascade d’agrément, un carrousel et un terrain de jeux pour enfants.
 			Kiosque à musique.
 			Carrousel.
 			Cascade d'agrément.
